--- a/data/trans_camb/P23_DUKE_AF_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-9,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,49</t>
+          <t>4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,46</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>44,31</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 6,46</t>
+          <t>-24,39; 3,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 4,6</t>
+          <t>-18,19; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 49,48</t>
+          <t>-10,78; 19,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 6,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,84; 20,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>40,11; 55,53</t>
+          <t>-12,68; 8,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 4,29</t>
+          <t>-13,39; 7,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 10,07</t>
+          <t>-15,04; 9,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,0; 50,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 3,59</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 3,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 11,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>-14,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,72%</t>
+          <t>-6,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>155,27%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>328,94%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-6,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>234,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,53%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,16%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 43,16</t>
+          <t>-32,77; 5,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 43,14</t>
+          <t>-23,8; 13,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,5; 302,52</t>
+          <t>-15,33; 32,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 56,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 163,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>214,77; 480,67</t>
+          <t>-19,08; 17,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 29,05</t>
+          <t>-20,1; 14,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 68,5</t>
+          <t>-22,8; 18,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>131,72; 345,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; 5,67</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 6,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-13,84; 19,26</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,68</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>-2,28</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>51,23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44,72</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-2,94</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>48,14</t>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 3,6</t>
+          <t>-12,41; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 7,15</t>
+          <t>-8,31; 7,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,82; 57,44</t>
+          <t>-6,18; 11,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 1,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,97; 50,74</t>
+          <t>-7,79; 6,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,06</t>
+          <t>-6,73; 6,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 3,19</t>
+          <t>-11,26; 4,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,78; 52,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,2; 3,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 4,69</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 5,69</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,26%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>-1,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>252,85%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-14,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>190,83%</t>
+          <t>-0,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>220,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,27; 21,74</t>
+          <t>-17,03; 8,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,36; 42,52</t>
+          <t>-11,8; 12,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>167,24; 345,02</t>
+          <t>-8,48; 20,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 6,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 9,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>144,84; 254,95</t>
+          <t>-11,15; 9,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 5,71</t>
+          <t>-9,38; 10,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 16,31</t>
+          <t>-16,16; 6,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>173,77; 270,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-10,34; 5,47</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-8,03; 7,35</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 9,15</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,42</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>53,8</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>51,21</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -1,2</t>
+          <t>-6,96; 9,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 3,12</t>
+          <t>-8,0; 8,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,05; 57,26</t>
+          <t>-7,4; 10,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 3,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 9,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,45; 60,28</t>
+          <t>-10,67; 3,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,11</t>
+          <t>-8,27; 4,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 4,56</t>
+          <t>-5,0; 8,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,81; 56,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; 4,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 4,01</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 7,29</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,88%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>247,04%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>329,43%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>285,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,88%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -5,1</t>
+          <t>-9,82; 15,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,13; 19,94</t>
+          <t>-10,91; 14,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155,59; 362,85</t>
+          <t>-10,49; 16,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 27,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 66,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>238,98; 437,15</t>
+          <t>-14,32; 5,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 0,03</t>
+          <t>-10,89; 7,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 28,66</t>
+          <t>-6,7; 13,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>218,72; 361,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 6,27</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 6,04</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 11,2</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>47,74</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,64</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>6,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,71</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,17</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,29</t>
+          <t>-13,21; 2,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 2,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,56; 52,69</t>
+          <t>-6,4; 10,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>43,88; 51,87</t>
+          <t>-6,76; 7,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; -0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,67</t>
+          <t>-0,42; 13,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,22; 50,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; 2,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 9,77</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>229,42%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>246,6%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>238,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,74%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -1,01</t>
+          <t>-20,4; 4,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 14,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176,71; 295,65</t>
+          <t>-9,46; 17,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 8,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 32,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>205,74; 302,39</t>
+          <t>-10,88; 12,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,1; -2,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 14,81</t>
+          <t>-0,57; 23,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>199,77; 270,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 4,52</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 16,4</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,84; 1,74</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 4,84</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 7,21</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 3,24</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 4,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 5,39</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 1,44</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 3,35</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 4,93</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,95%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-11,48; 2,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 7,74</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 11,41</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 5,18</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 6,85</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 8,66</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 2,25</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,08; 5,34</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 7,82</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
